--- a/biology/Botanique/Bonne_de_Malines/Bonne_de_Malines.xlsx
+++ b/biology/Botanique/Bonne_de_Malines/Bonne_de_Malines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bonne de Malines est une variété de poire.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nélis d'hiver,
 Winter Nélis,
@@ -521,7 +535,7 @@
 Coloma d'hiver,
 Bergamote Thouin,
 Colmar Nélis,
-Milanaise Cuvelier[1].</t>
+Milanaise Cuvelier.</t>
         </is>
       </c>
     </row>
@@ -549,9 +563,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poire vient d'un semis du conseiller Jean-Charles Nélis ; elle est obtenue en 1814, à Malines en Belgique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poire vient d'un semis du conseiller Jean-Charles Nélis ; elle est obtenue en 1814, à Malines en Belgique.
 </t>
         </is>
       </c>
@@ -580,13 +596,15 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rameaux : de longueur et de grosseur moyennes, arqués, fauve bronzé à lenticelles petites, grises, rondes.
 Yeux : ils sont petits, coniques, aigus, très écartés du rameau.
 Culture : ce poirier doit être greffé sur cognassier pour les petites formes, et sur franc de préférence pour les grandes formes. Cultivé trop au nord ainsi que dans les sols trop forts, il est sujet au chancre et ses branches périssent rapidement.
 Répandue dans toutes les régions, cette variété doit être taillée court pour maintenir sa fertilité, et il sera nécessaire d'éclaircir les fruits.
-La tavelure attaque très peu les fruits[2].
+La tavelure attaque très peu les fruits.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Moyen ou à peine moyen, il se présente comme turbiné, obtus et ventru, tronqué à la base.
 Épiderme : relativement rude, jaune verdâtre, largement plaqué de fauve sur une grande partie de la surface, il est pointillé de gris pâle, rarement un peu teinté de rose pâle.
@@ -623,8 +643,8 @@
 Œil : il est assez grand, ouvert, inséré dans une dépression assez large et peu profonde.
 Chair : elle est blanche, fine, fondante, juteuse, sucrée, acidulée et parfumée.
 Qualité  : le fruit se révèle de très bonne qualité.
-Maturité : elle est atteinte de décembre à janvier[2].
-Le code PLU du fruit est 4426[3].
+Maturité : elle est atteinte de décembre à janvier.
+Le code PLU du fruit est 4426.
 </t>
         </is>
       </c>
@@ -653,9 +673,11 @@
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un fruit d'amateur[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un fruit d'amateur.
 </t>
         </is>
       </c>
